--- a/manager-charlie-prototype/Assets/_Home/DataResources/Contents/QnAContents.xlsx
+++ b/manager-charlie-prototype/Assets/_Home/DataResources/Contents/QnAContents.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\manager-charlie\manager-charlie-prototype\Assets\_Home\DataResources\QnATable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\manager-charlie\manager-charlie-prototype\Assets\_Home\DataResources\Contents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="188">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,19 +438,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I'm good,I'm happy,great</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>you too,it is nice to meet you too,it is good to see you too</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wiwi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>misterre</t>
+    <t>kimchi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasagna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macadamia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mango</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandarin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nectarine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nugget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oatmeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpkin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questadilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raisins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raspberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaghetti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strawberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quail eggs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>udon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ugli fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unagi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vinegar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waffles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholemeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watermelon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ximenia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xylocarp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xylitol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yardlong bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoghurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zucchini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuppa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm good,I'm happy,great,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm good,I'm happy,great,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you too,it is nice to meet you too,it is good to see you too,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you too,it is nice to meet you too,it is good to see you too,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you too,it is nice to meet you too,it is good to see you too,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -848,7 +1164,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -862,7 +1178,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -876,7 +1192,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -890,7 +1206,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -904,7 +1220,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -918,7 +1234,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -932,7 +1248,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -946,7 +1262,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -960,7 +1276,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -974,7 +1290,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -988,7 +1304,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1002,7 +1318,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1016,7 +1332,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1030,7 +1346,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1044,7 +1360,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1058,7 +1374,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -1072,7 +1388,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -1086,7 +1402,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -1100,7 +1416,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -1114,7 +1430,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -1128,7 +1444,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -1142,7 +1458,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -1156,7 +1472,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -1170,7 +1486,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -1184,7 +1500,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -1198,7 +1514,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1212,7 +1528,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -1226,7 +1542,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -1240,7 +1556,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -1254,7 +1570,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -1264,6 +1580,678 @@
       </c>
       <c r="D31" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +2266,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F9"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1314,7 +2302,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1334,7 +2322,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1354,7 +2342,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1374,7 +2362,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1394,7 +2382,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1414,7 +2402,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1434,7 +2422,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1454,7 +2442,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1474,7 +2462,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1494,7 +2482,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1514,7 +2502,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -1534,7 +2522,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -1554,7 +2542,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -1574,7 +2562,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -1594,7 +2582,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -1614,7 +2602,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -1634,7 +2622,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -1654,7 +2642,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -1674,7 +2662,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -1694,7 +2682,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -1724,7 +2712,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1755,7 +2743,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1772,7 +2760,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1789,7 +2777,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1806,7 +2794,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1815,15 +2803,15 @@
         <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1832,15 +2820,15 @@
         <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1849,15 +2837,15 @@
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1866,15 +2854,15 @@
         <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1883,15 +2871,15 @@
         <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1900,10 +2888,10 @@
         <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/manager-charlie-prototype/Assets/_Home/DataResources/Contents/QnAContents.xlsx
+++ b/manager-charlie-prototype/Assets/_Home/DataResources/Contents/QnAContents.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\manager-charlie\manager-charlie-prototype\Assets\_Home\DataResources\Contents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGulBBang\Desktop\Jobs\manager-charlie-prototype\Assets\_Home\DataResources\Contents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents1" sheetId="1" r:id="rId1"/>
@@ -1140,15 +1140,15 @@
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="14.19921875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2265,22 +2265,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2711,20 +2711,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="15.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.69921875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>

--- a/manager-charlie-prototype/Assets/_Home/DataResources/Contents/QnAContents.xlsx
+++ b/manager-charlie-prototype/Assets/_Home/DataResources/Contents/QnAContents.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="224">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -767,6 +767,149 @@
   </si>
   <si>
     <t>mrre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabage bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper cup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juice box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rigid plastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk jug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>straws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frypan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass cup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wine bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Correct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2263,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2291,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>55</v>
@@ -2697,6 +2840,606 @@
         <v>81</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>75</v>
       </c>
     </row>

--- a/manager-charlie-prototype/Assets/_Home/DataResources/Contents/QnAContents.xlsx
+++ b/manager-charlie-prototype/Assets/_Home/DataResources/Contents/QnAContents.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGulBBang\Desktop\Jobs\manager-charlie-prototype\Assets\_Home\DataResources\Contents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\ki-coop-prototype\manager-charlie-prototype\Assets\_Home\DataResources\Contents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10515" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents1" sheetId="1" r:id="rId1"/>
     <sheet name="Contents2" sheetId="2" r:id="rId2"/>
     <sheet name="Contents3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="200">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>joy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hello</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wiwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kimchi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -766,14 +758,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mrre</t>
+    <t>Joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bruce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you, Thank you so much, Thank you for your help,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>You're welcome, Not at all, My pleasure,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't mention it, No problem, Any time,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1590,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1604,10 +1644,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1618,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1632,10 +1672,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,10 +1686,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1660,10 +1700,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1674,10 +1714,10 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1688,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1702,10 +1742,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,10 +1770,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1744,10 +1784,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1758,10 +1798,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1772,10 +1812,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1786,10 +1826,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,10 +1840,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1814,10 +1854,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1828,10 +1868,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1842,10 +1882,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,10 +1896,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1870,10 +1910,10 @@
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1884,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1898,10 +1938,10 @@
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1912,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1926,10 +1966,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1940,10 +1980,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1954,10 +1994,10 @@
         <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1968,10 +2008,10 @@
         <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1982,10 +2022,10 @@
         <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1996,10 +2036,10 @@
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2010,10 +2050,10 @@
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2024,10 +2064,10 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2038,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2052,10 +2092,10 @@
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2066,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2094,10 +2134,10 @@
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2108,10 +2148,10 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2122,10 +2162,10 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2136,10 +2176,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,10 +2190,10 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2164,10 +2204,10 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2178,10 +2218,10 @@
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2206,10 +2246,10 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2220,10 +2260,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2234,10 +2274,10 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,10 +2288,10 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2709,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2755,7 +2795,7 @@
         <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2766,13 +2806,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2783,13 +2823,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2800,13 +2840,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2817,13 +2857,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2834,13 +2874,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2851,10 +2891,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>187</v>
@@ -2868,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>187</v>
@@ -2885,17 +2925,171 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>